--- a/Finflux Automation Excels/Client/4924-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-foreclose.xlsx
+++ b/Finflux Automation Excels/Client/4924-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-foreclose.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>clickonnewloan</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Principal</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -233,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +261,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -310,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,23 +338,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,113 +958,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>10000</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>10000</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>257.14999999999998</v>
-      </c>
-      <c r="B3" s="13">
-        <v>257.14999999999998</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="A3" s="11">
+        <v>257.11</v>
+      </c>
+      <c r="B3" s="11">
+        <v>257.11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>300</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>300</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1062,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,89 +1091,93 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="15">
         <v>42005</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="14">
         <v>10000</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
         <v>300</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11">
         <v>300</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <v>300</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>45</v>
       </c>
       <c r="C3" s="15">
@@ -1168,43 +1186,45 @@
       <c r="D3" s="15">
         <v>42050</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12">
-        <v>1625</v>
-      </c>
-      <c r="G3" s="12">
-        <v>8375</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17">
+        <v>1627.83</v>
+      </c>
+      <c r="G3" s="17">
+        <v>8372.17</v>
+      </c>
+      <c r="H3" s="11">
         <v>145.16</v>
       </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>1770.16</v>
-      </c>
-      <c r="L3" s="16">
-        <v>1770.16</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>1772.99</v>
+      </c>
+      <c r="L3" s="17">
+        <v>1772.99</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>28</v>
       </c>
       <c r="C4" s="15">
@@ -1213,43 +1233,45 @@
       <c r="D4" s="15">
         <v>42066</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="16">
-        <v>1641.25</v>
-      </c>
-      <c r="G4" s="16">
-        <v>6733.75</v>
-      </c>
-      <c r="H4" s="13">
-        <v>83.75</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17">
+        <v>1641.28</v>
+      </c>
+      <c r="G4" s="17">
+        <v>6730.89</v>
+      </c>
+      <c r="H4" s="11">
+        <v>83.72</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>1725</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="14">
         <v>1725</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="14">
         <v>1725</v>
       </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="N4" s="14"/>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>13</v>
       </c>
       <c r="C5" s="15">
@@ -1258,35 +1280,37 @@
       <c r="D5" s="15">
         <v>42091</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16">
-        <v>6733.75</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>28.24</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>6761.99</v>
-      </c>
-      <c r="L5" s="16">
-        <v>6761.99</v>
-      </c>
-      <c r="M5" s="16">
-        <v>1504.84</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17">
+        <v>6730.89</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>28.23</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>6759.12</v>
+      </c>
+      <c r="L5" s="17">
+        <v>6759.12</v>
+      </c>
+      <c r="M5" s="17">
+        <v>1502.01</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1297,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,229 +1337,243 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>62</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="15">
         <v>42091</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="16">
-        <v>5257.15</v>
-      </c>
-      <c r="F2" s="16">
-        <v>5257.15</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>64</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>61</v>
+      </c>
+      <c r="E2" s="17">
+        <v>5257.11</v>
+      </c>
+      <c r="F2" s="17">
+        <v>5257.11</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>104</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="15">
         <v>42078</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>-50.76</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>5257.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>63</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>61</v>
+      <c r="D3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>-50.73</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>5257.11</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>103</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="15">
         <v>42066</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="14">
         <v>2500</v>
       </c>
-      <c r="F4" s="16">
-        <v>2471.7600000000002</v>
-      </c>
-      <c r="G4" s="13">
-        <v>28.24</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>5257.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>59</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>61</v>
+      <c r="F4" s="17">
+        <v>2471.77</v>
+      </c>
+      <c r="G4" s="11">
+        <v>28.23</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>5257.11</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>99</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="15">
         <v>42050</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="14">
         <v>2500</v>
       </c>
-      <c r="F5" s="16">
-        <v>2271.09</v>
-      </c>
-      <c r="G5" s="13">
-        <v>228.91</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>7728.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>58</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>61</v>
+      <c r="F5" s="17">
+        <v>2271.12</v>
+      </c>
+      <c r="G5" s="11">
+        <v>228.88</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>7728.88</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>98</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="15">
         <v>42005</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="11">
         <v>300</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>300</v>
       </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>57</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>61</v>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>97</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="15">
         <v>42005</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="14">
         <v>10000</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <v>10000</v>
       </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Finflux Automation Excels/Client/4924-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-foreclose.xlsx
+++ b/Finflux Automation Excels/Client/4924-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-foreclose.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>clickonnewloan</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Principal</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -230,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,21 +264,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -322,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,24 +326,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,114 +945,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>10000</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>10000</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>257.11</v>
-      </c>
-      <c r="B3" s="11">
-        <v>257.11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="A3" s="13">
+        <v>257.14999999999998</v>
+      </c>
+      <c r="B3" s="13">
+        <v>257.14999999999998</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>300</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>300</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1076,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,93 +1077,89 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
+      <c r="N1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="15">
         <v>42005</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="14">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12">
         <v>10000</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13">
         <v>300</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13">
         <v>300</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="13">
         <v>300</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>45</v>
       </c>
       <c r="C3" s="15">
@@ -1186,45 +1168,43 @@
       <c r="D3" s="15">
         <v>42050</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17">
-        <v>1627.83</v>
-      </c>
-      <c r="G3" s="17">
-        <v>8372.17</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="E3" s="13"/>
+      <c r="F3" s="12">
+        <v>1625</v>
+      </c>
+      <c r="G3" s="12">
+        <v>8375</v>
+      </c>
+      <c r="H3" s="13">
         <v>145.16</v>
       </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17">
-        <v>1772.99</v>
-      </c>
-      <c r="L3" s="17">
-        <v>1772.99</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1770.16</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1770.16</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>28</v>
       </c>
       <c r="C4" s="15">
@@ -1233,45 +1213,43 @@
       <c r="D4" s="15">
         <v>42066</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17">
-        <v>1641.28</v>
-      </c>
-      <c r="G4" s="17">
-        <v>6730.89</v>
-      </c>
-      <c r="H4" s="11">
-        <v>83.72</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="E4" s="13"/>
+      <c r="F4" s="16">
+        <v>1641.25</v>
+      </c>
+      <c r="G4" s="16">
+        <v>6733.75</v>
+      </c>
+      <c r="H4" s="13">
+        <v>83.75</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
         <v>1725</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>1725</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>1725</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>13</v>
       </c>
       <c r="C5" s="15">
@@ -1280,37 +1258,35 @@
       <c r="D5" s="15">
         <v>42091</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17">
-        <v>6730.89</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>28.23</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
-        <v>6759.12</v>
-      </c>
-      <c r="L5" s="17">
-        <v>6759.12</v>
-      </c>
-      <c r="M5" s="17">
-        <v>1502.01</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11">
+      <c r="E5" s="13"/>
+      <c r="F5" s="16">
+        <v>6733.75</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>28.24</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>6761.99</v>
+      </c>
+      <c r="L5" s="16">
+        <v>6761.99</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1504.84</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1321,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,243 +1313,229 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>102</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="15">
         <v>42091</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="16">
+        <v>5257.15</v>
+      </c>
+      <c r="F2" s="16">
+        <v>5257.15</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>64</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="17">
-        <v>5257.11</v>
-      </c>
-      <c r="F2" s="17">
-        <v>5257.11</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>104</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="C3" s="15">
         <v>42078</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>-50.73</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17">
-        <v>5257.11</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>103</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>60</v>
+      <c r="D3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>-50.76</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>5257.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>63</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="15">
         <v>42066</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2500</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2471.7600000000002</v>
+      </c>
+      <c r="G4" s="13">
+        <v>28.24</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5257.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>59</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2500</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2471.77</v>
-      </c>
-      <c r="G4" s="11">
-        <v>28.23</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>5257.11</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>99</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="15">
         <v>42050</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2500</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2271.09</v>
+      </c>
+      <c r="G5" s="13">
+        <v>228.91</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>7728.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>58</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2500</v>
-      </c>
-      <c r="F5" s="17">
-        <v>2271.12</v>
-      </c>
-      <c r="G5" s="11">
-        <v>228.88</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>7728.88</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>98</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="C6" s="15">
         <v>42005</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="13">
         <v>300</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <v>300</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>10000</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>97</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>60</v>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>57</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="15">
         <v>42005</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12">
         <v>10000</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <v>10000</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Finflux Automation Excels/Client/4924-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-foreclose.xlsx
+++ b/Finflux Automation Excels/Client/4924-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-foreclose.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
@@ -916,7 +916,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,7 @@
         <v>62</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>50.73</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
